--- a/figures/gene_dosage/outdated/gene_dosage_subregions.xlsx
+++ b/figures/gene_dosage/outdated/gene_dosage_subregions.xlsx
@@ -8,39 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Library/CloudStorage/Dropbox/github/22q_subcort_volumes/figures/gene_dosage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{851401C2-DAAE-694E-A9F5-D488A27FC411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{586CAC6A-F5CA-014A-86D1-5C5829EC68DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35780" yWindow="-5080" windowWidth="28040" windowHeight="17380"/>
+    <workbookView xWindow="30240" yWindow="-6460" windowWidth="38400" windowHeight="23500"/>
   </bookViews>
   <sheets>
     <sheet name="gene_dosage_subregions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="gene_dosage_subregions" localSheetId="0">gene_dosage_subregions!$A$1:$F$32</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="gene_dosage_subregions" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/charlie/Library/CloudStorage/Dropbox/github/22q_subcort_volumes/figures/gene_dosage/gene_dosage_subregions.csv" tab="0" comma="1">
-      <textFields count="6">
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-        <textField type="text"/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Structure</t>
   </si>
@@ -48,310 +28,79 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Hemi</t>
-  </si>
-  <si>
     <t>beta</t>
   </si>
   <si>
     <t>p</t>
   </si>
   <si>
+    <t>gross volumes</t>
+  </si>
+  <si>
+    <t>whole amygdala</t>
+  </si>
+  <si>
+    <t>total ICV</t>
+  </si>
+  <si>
+    <t>whole hippocampus</t>
+  </si>
+  <si>
+    <t>thalamus subregions</t>
+  </si>
+  <si>
     <t>mediodorsal</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>ventral lateral</t>
   </si>
   <si>
-    <t>paracentral</t>
-  </si>
-  <si>
-    <t>medial geniculate</t>
+    <t>lateral posterior</t>
   </si>
   <si>
     <t>lateral geniculate</t>
   </si>
   <si>
-    <t>anteroventral</t>
-  </si>
-  <si>
     <t>medial ventral (reuniens)</t>
   </si>
   <si>
-    <t>fimbria</t>
+    <t>hippocampus subregions</t>
   </si>
   <si>
     <t>GC ML DG</t>
   </si>
   <si>
+    <t>CA4</t>
+  </si>
+  <si>
     <t>CA1</t>
   </si>
   <si>
-    <t>CA4</t>
+    <t>subiculum</t>
+  </si>
+  <si>
+    <t>molecular layer</t>
   </si>
   <si>
     <t>hippocampal fissure</t>
   </si>
   <si>
-    <t>subiculum</t>
-  </si>
-  <si>
-    <t>molecular layer</t>
-  </si>
-  <si>
     <t>hippocampal tail</t>
   </si>
   <si>
+    <t>amygdala subregions</t>
+  </si>
+  <si>
+    <t>accessory basal nucleus</t>
+  </si>
+  <si>
     <t>paralaminar nucleus</t>
   </si>
   <si>
-    <t>accessory basal nucleus</t>
-  </si>
-  <si>
     <t>basal nucleus</t>
   </si>
   <si>
-    <t>-0.34</t>
-  </si>
-  <si>
-    <t>4.5e-05</t>
-  </si>
-  <si>
-    <t>2.8e-04</t>
-  </si>
-  <si>
-    <t>-0.32</t>
-  </si>
-  <si>
-    <t>1.7e-04</t>
-  </si>
-  <si>
-    <t>7.7e-04</t>
-  </si>
-  <si>
-    <t>-0.28</t>
-  </si>
-  <si>
-    <t>-0.26</t>
-  </si>
-  <si>
-    <t>5.6e-04</t>
-  </si>
-  <si>
-    <t>2.2e-03</t>
-  </si>
-  <si>
-    <t>-0.20</t>
-  </si>
-  <si>
-    <t>1.7e-02</t>
-  </si>
-  <si>
-    <t>4.6e-02</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>1.9e-02</t>
-  </si>
-  <si>
-    <t>5.0e-02</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>7.2e-03</t>
-  </si>
-  <si>
-    <t>2.2e-02</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>6.4e-04</t>
-  </si>
-  <si>
-    <t>2.5e-03</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>6.9e-05</t>
-  </si>
-  <si>
-    <t>3.7e-04</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>9.8e-07</t>
-  </si>
-  <si>
-    <t>1.3e-05</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>5.5e-03</t>
-  </si>
-  <si>
-    <t>1.8e-02</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>1.3e-04</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>1.2e-03</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>6.3e-05</t>
-  </si>
-  <si>
-    <t>3.6e-04</t>
-  </si>
-  <si>
-    <t>3.3e-05</t>
-  </si>
-  <si>
-    <t>2.2e-04</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>1.8e-06</t>
-  </si>
-  <si>
-    <t>1.8e-05</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>2.2e-06</t>
-  </si>
-  <si>
-    <t>2.0e-05</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>3.2e-07</t>
-  </si>
-  <si>
-    <t>5.2e-06</t>
-  </si>
-  <si>
-    <t>2.9e-06</t>
-  </si>
-  <si>
-    <t>2.3e-05</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>1.4e-07</t>
-  </si>
-  <si>
-    <t>2.8e-06</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>1.4e-06</t>
-  </si>
-  <si>
-    <t>1.6e-05</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>4.0e-06</t>
-  </si>
-  <si>
-    <t>2.9e-05</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>5.0e-08</t>
-  </si>
-  <si>
-    <t>1.3e-06</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>7.1e-10</t>
-  </si>
-  <si>
-    <t>2.8e-08</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>2.2e-10</t>
-  </si>
-  <si>
-    <t>1.7e-08</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>1.2e-02</t>
-  </si>
-  <si>
-    <t>3.6e-02</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>5.9e-03</t>
-  </si>
-  <si>
-    <t>2.8e-03</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>1.6e-03</t>
-  </si>
-  <si>
-    <t>5.7e-03</t>
+    <t>whole thalamus</t>
   </si>
   <si>
     <r>
@@ -361,7 +110,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -369,15 +118,6 @@
       <t>q</t>
     </r>
   </si>
-  <si>
-    <t>Thalamus</t>
-  </si>
-  <si>
-    <t>Hippocampus</t>
-  </si>
-  <si>
-    <t>Amygdala</t>
-  </si>
 </sst>
 </file>
 
@@ -520,13 +260,13 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -534,7 +274,7 @@
     <font>
       <b/>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -890,13 +630,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -953,10 +706,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gene_dosage_subregions" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1256,604 +1005,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="C2" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.2E-4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.4000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.0999999999999994E-8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="C6" s="2">
+        <v>-0.34</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.1000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="C7" s="2">
+        <v>-0.27</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="C8" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="C9" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="C10" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.1E-4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.4000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.5E-6</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8.8999999999999995E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.1999999999999998E-7</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8.8999999999999995E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9.1000000000000004E-9</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.4999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.3E-7</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.1000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.0999999999999999E-8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.4999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2.4E-10</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.0999999999999999E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>103</v>
+      <c r="C19" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7.3999999999999999E-4</v>
       </c>
     </row>
   </sheetData>
